--- a/test/template_results/TPBO-0.75_CO2_27C_saved_template.xlsx
+++ b/test/template_results/TPBO-0.75_CO2_27C_saved_template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Overall Properties</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Dual Mode Pred Err (CC/CC)</t>
+  </si>
+  <si>
+    <t>CO2</t>
   </si>
   <si>
     <t>TPBO-0.75</t>
@@ -565,6 +568,9 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -719,7 +725,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/test/template_results/TPBO-0.75_CO2_27C_saved_template.xlsx
+++ b/test/template_results/TPBO-0.75_CO2_27C_saved_template.xlsx
@@ -604,7 +604,7 @@
         <v>0.228</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -636,7 +636,7 @@
         <v>72.83494</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -668,7 +668,7 @@
         <v>304.18</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -688,7 +688,7 @@
         <v>44.01</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -717,7 +717,7 @@
         <v>0.13399839</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -734,10 +734,10 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:17">

--- a/test/template_results/TPBO-0.75_CO2_27C_saved_template.xlsx
+++ b/test/template_results/TPBO-0.75_CO2_27C_saved_template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Overall Properties</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Fug. err (MPa)</t>
+  </si>
+  <si>
+    <t>Molar Vol (L/mol)</t>
+  </si>
+  <si>
+    <t>M. Vol. err (L/mol)</t>
   </si>
   <si>
     <t>Mass frac.</t>
@@ -526,13 +532,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -564,12 +570,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -596,7 +602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -628,7 +634,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -660,7 +666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -680,7 +686,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -700,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -720,12 +726,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -740,7 +746,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -760,7 +766,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -771,7 +777,7 @@
         <v>0.0005</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -820,8 +826,14 @@
       <c r="Q11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>1</v>
       </c>
@@ -835,7 +847,7 @@
         <v>215651.26064955175</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="B13">
         <v>1.1575382271126762e6</v>
       </c>
@@ -846,7 +858,7 @@
         <v>699620.4206157492</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:19">
       <c r="B14">
         <v>1.5715840492957747e6</v>
       </c>
@@ -857,7 +869,7 @@
         <v>1.164641763532803e6</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:19">
       <c r="B15">
         <v>2.1419962288732394e6</v>
       </c>
@@ -868,7 +880,7 @@
         <v>1.6959279165259018e6</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:19">
       <c r="B16">
         <v>2.640182235915493e6</v>
       </c>
@@ -879,7 +891,7 @@
         <v>2.212959801326998e6</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:19">
       <c r="B17">
         <v>3.1430149812940136e6</v>
       </c>
@@ -890,7 +902,7 @@
         <v>2.7222997609021305e6</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:19">
       <c r="B18">
         <v>3.496390378521126e6</v>
       </c>

--- a/test/template_results/TPBO-0.75_CO2_27C_saved_template.xlsx
+++ b/test/template_results/TPBO-0.75_CO2_27C_saved_template.xlsx
@@ -848,6 +848,9 @@
       </c>
     </row>
     <row r="13" spans="1:19">
+      <c r="A13">
+        <v>2</v>
+      </c>
       <c r="B13">
         <v>1.1575382271126762e6</v>
       </c>
@@ -859,6 +862,9 @@
       </c>
     </row>
     <row r="14" spans="1:19">
+      <c r="A14">
+        <v>3</v>
+      </c>
       <c r="B14">
         <v>1.5715840492957747e6</v>
       </c>
@@ -870,6 +876,9 @@
       </c>
     </row>
     <row r="15" spans="1:19">
+      <c r="A15">
+        <v>4</v>
+      </c>
       <c r="B15">
         <v>2.1419962288732394e6</v>
       </c>
@@ -881,6 +890,9 @@
       </c>
     </row>
     <row r="16" spans="1:19">
+      <c r="A16">
+        <v>5</v>
+      </c>
       <c r="B16">
         <v>2.640182235915493e6</v>
       </c>
@@ -892,6 +904,9 @@
       </c>
     </row>
     <row r="17" spans="1:19">
+      <c r="A17">
+        <v>6</v>
+      </c>
       <c r="B17">
         <v>3.1430149812940136e6</v>
       </c>
@@ -903,6 +918,9 @@
       </c>
     </row>
     <row r="18" spans="1:19">
+      <c r="A18">
+        <v>7</v>
+      </c>
       <c r="B18">
         <v>3.496390378521126e6</v>
       </c>
